--- a/stock_predictor_ai/data/company_sentiment_ready/IFF_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/IFF_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12733"/>
+  <dimension ref="A1:B12794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102305,6 +102305,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12734">
+      <c r="A12734" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B12734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12735">
+      <c r="A12735" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B12735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12736">
+      <c r="A12736" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B12736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12737">
+      <c r="A12737" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B12737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12738">
+      <c r="A12738" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B12738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12739">
+      <c r="A12739" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B12739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12740">
+      <c r="A12740" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B12740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12741">
+      <c r="A12741" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B12741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12742">
+      <c r="A12742" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B12742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12743">
+      <c r="A12743" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B12743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12744">
+      <c r="A12744" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B12744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12745">
+      <c r="A12745" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B12745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12746">
+      <c r="A12746" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B12746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12747">
+      <c r="A12747" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B12747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12748">
+      <c r="A12748" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B12748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12749">
+      <c r="A12749" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B12749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12750">
+      <c r="A12750" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B12750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12751">
+      <c r="A12751" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B12751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12752">
+      <c r="A12752" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B12752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12753">
+      <c r="A12753" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B12753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12754">
+      <c r="A12754" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B12754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12755">
+      <c r="A12755" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B12755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12756">
+      <c r="A12756" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B12756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12757">
+      <c r="A12757" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B12757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12758">
+      <c r="A12758" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B12758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12759">
+      <c r="A12759" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B12759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12760">
+      <c r="A12760" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B12760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12761">
+      <c r="A12761" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B12761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12762">
+      <c r="A12762" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B12762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12763">
+      <c r="A12763" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B12763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12764">
+      <c r="A12764" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B12764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12765">
+      <c r="A12765" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B12765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12766">
+      <c r="A12766" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B12766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12767">
+      <c r="A12767" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B12767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12768">
+      <c r="A12768" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B12768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12769">
+      <c r="A12769" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B12769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12770">
+      <c r="A12770" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B12770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12771">
+      <c r="A12771" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B12771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12772">
+      <c r="A12772" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B12772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12773">
+      <c r="A12773" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B12773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12774">
+      <c r="A12774" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B12774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12775">
+      <c r="A12775" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B12775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12776">
+      <c r="A12776" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B12776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12777">
+      <c r="A12777" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B12777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12778">
+      <c r="A12778" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B12778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12779">
+      <c r="A12779" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B12779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12780">
+      <c r="A12780" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B12780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12781">
+      <c r="A12781" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B12781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12782">
+      <c r="A12782" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B12782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12783">
+      <c r="A12783" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B12783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12784">
+      <c r="A12784" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B12784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12785">
+      <c r="A12785" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B12785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12786">
+      <c r="A12786" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B12786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12787">
+      <c r="A12787" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B12787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12788">
+      <c r="A12788" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B12788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12789">
+      <c r="A12789" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B12789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12790">
+      <c r="A12790" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B12790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12791">
+      <c r="A12791" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B12791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12792">
+      <c r="A12792" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B12792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12793">
+      <c r="A12793" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B12793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12794">
+      <c r="A12794" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B12794" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
